--- a/locale/xlsx/i18n.xlsx
+++ b/locale/xlsx/i18n.xlsx
@@ -1,24 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/codes/personal/react-demo-by-vite/locale/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965CAA68-F1F5-0D44-8F58-A093D76144CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="i18n_locals" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+  <si>
+    <t>react-demo-by-vite v0.0.0</t>
+  </si>
+  <si>
+    <t>cn</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>原始文案（禁止修改）</t>
+  </si>
+  <si>
+    <t>前往第一页</t>
+  </si>
+  <si>
+    <t>Go to Page1</t>
+  </si>
+  <si>
+    <t>前往第二页</t>
+  </si>
+  <si>
+    <t>Go to Page2</t>
+  </si>
+  <si>
+    <t>回到首页</t>
+  </si>
+  <si>
+    <t>Back Home</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>Go Back</t>
+  </si>
+  <si>
+    <t>对不起，您访问的页面不存在</t>
+  </si>
+  <si>
+    <t>Sorry, This page is not exist</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>请输入用户名</t>
+  </si>
+  <si>
+    <t>Please enter your username</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>Please enter your password</t>
+  </si>
+  <si>
+    <t>暂无权限</t>
+  </si>
+  <si>
+    <t>No Permission</t>
+  </si>
+  <si>
+    <t>对不起，您暂无权限访问此页面</t>
+  </si>
+  <si>
+    <t>Sorry, You have no permission to access this page</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>当前时间：%s</t>
+  </si>
+  <si>
+    <t>Current Time：%s</t>
+  </si>
+  <si>
+    <t>我是一段奇怪的带有色彩的文案：%s，怎么样？</t>
+  </si>
+  <si>
+    <t>I am colorful texts：%s，how do you think？</t>
+  </si>
+  <si>
+    <t>彩色的文案内容</t>
+  </si>
+  <si>
+    <t>Colorful texts</t>
+  </si>
+  <si>
+    <t>前往第三页</t>
+  </si>
+  <si>
+    <t>Go to Page3</t>
+  </si>
+  <si>
+    <t>重试</t>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,10 +187,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,223 +523,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" customWidth="1"/>
+    <col min="2" max="3" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>react-demo-by-vite v0.0.0</v>
-      </c>
-      <c r="B1" t="str">
-        <v>cn</v>
-      </c>
-      <c r="C1" t="str">
-        <v>en</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>原始文案（禁止修改）</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>前往第一页</v>
-      </c>
-      <c r="B4" t="str">
-        <v>前往第一页</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Go to Page1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>前往第二页</v>
-      </c>
-      <c r="B5" t="str">
-        <v>前往第二页</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Go to Page2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>回到首页</v>
-      </c>
-      <c r="B6" t="str">
-        <v>回到首页</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Back Home</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>返回</v>
-      </c>
-      <c r="B7" t="str">
-        <v>返回</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Go Back</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>对不起，您访问的页面不存在</v>
-      </c>
-      <c r="B8" t="str">
-        <v>对不起，您访问的页面不存在</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Sorry, This page is not exist</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>登录</v>
-      </c>
-      <c r="B9" t="str">
-        <v>登录</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Login</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>用户名</v>
-      </c>
-      <c r="B10" t="str">
-        <v>用户名</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Username</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>请输入用户名</v>
-      </c>
-      <c r="B11" t="str">
-        <v>请输入用户名</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Please enter your username</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>密码</v>
-      </c>
-      <c r="B12" t="str">
-        <v>密码</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Password</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>请输入密码</v>
-      </c>
-      <c r="B13" t="str">
-        <v>请输入密码</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Please enter your password</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>暂无权限</v>
-      </c>
-      <c r="B14" t="str">
-        <v>暂无权限</v>
-      </c>
-      <c r="C14" t="str">
-        <v>No Permission</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>对不起，您暂无权限访问此页面</v>
-      </c>
-      <c r="B15" t="str">
-        <v>对不起，您暂无权限访问此页面</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Sorry, You have no permission to access this page</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>退出</v>
-      </c>
-      <c r="B16" t="str">
-        <v>退出</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Logout</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>当前时间：%s</v>
-      </c>
-      <c r="B17" t="str">
-        <v>当前时间：%s</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Current Time：%s</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>我是一段奇怪的带有色彩的文案：%s，怎么样？</v>
-      </c>
-      <c r="B18" t="str">
-        <v>我是一段奇怪的带有色彩的文案：%s，怎么样？</v>
-      </c>
-      <c r="C18" t="str">
-        <v>I am colorful texts：%s，how do you think？</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>彩色的文案内容</v>
-      </c>
-      <c r="B19" t="str">
-        <v>彩色的文案内容</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Colorful texts</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>前往第三页</v>
-      </c>
-      <c r="B20" t="str">
-        <v>前往第三页</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Go to Page3</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C20"/>
+    <ignoredError sqref="A1:C20 A21:B21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>